--- a/bank-test.xlsx
+++ b/bank-test.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204607C-2889-4799-A945-64C2D37C5D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,208 +27,185 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
   <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campaign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">previous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poutcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue-collar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tertiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entrepreneur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">housemaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">self-employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technician</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>marital</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>pdays</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>poutcome</t>
+  </si>
+  <si>
+    <t>admin.</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>blue-collar</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>tertiary</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>housemaid</t>
+  </si>
+  <si>
+    <t>divorced</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>self-employed</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -236,7 +218,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -244,86 +226,349 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:R36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.88"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,8 +619,8 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="n">
+    <row r="7" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -390,7 +635,7 @@
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>1303</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -402,30 +647,30 @@
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3">
         <v>6</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="3">
         <v>1585</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="3">
         <v>8</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="3">
         <v>405</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="3">
         <v>405</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="n">
+    <row r="8" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -440,7 +685,7 @@
       <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>50775</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -452,30 +697,30 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="3">
         <v>21</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="3">
         <v>646</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>22</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="3">
         <v>94</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="3">
         <v>94</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
+    <row r="9" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
         <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -490,7 +735,7 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>24161</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -502,30 +747,30 @@
       <c r="J9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="3">
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="3">
         <v>1395</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="3">
         <v>49</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="3">
         <v>414</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="3">
         <v>414</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="n">
+    <row r="10" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
         <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -540,7 +785,7 @@
       <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>-134</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -552,30 +797,30 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="3">
         <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="3">
         <v>381</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="3">
         <v>30</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="3">
         <v>576</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="3">
         <v>576</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="n">
+    <row r="11" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -590,7 +835,7 @@
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="3">
         <v>-1382</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -602,30 +847,30 @@
       <c r="J11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="3">
         <v>23</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="3">
         <v>1096</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="3">
         <v>52</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="3">
         <v>257</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="3">
         <v>257</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="n">
+    <row r="12" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
         <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -640,7 +885,7 @@
       <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3">
         <v>68792</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -652,30 +897,30 @@
       <c r="J12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="3">
         <v>28</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="3">
         <v>653</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="3">
         <v>54</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="3">
         <v>498</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="3">
         <v>498</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="n">
+    <row r="13" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -690,7 +935,7 @@
       <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>864</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -702,30 +947,30 @@
       <c r="J13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="3">
         <v>2</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="3">
         <v>590</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="3">
         <v>45</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="3">
         <v>30</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="3">
         <v>30</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="n">
+    <row r="14" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
         <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -740,7 +985,7 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="3">
         <v>23208</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -752,30 +997,30 @@
       <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="3">
         <v>2</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="3">
         <v>924</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="3">
         <v>40</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="3">
         <v>84</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="3">
         <v>84</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="n">
+    <row r="15" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
         <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -790,7 +1035,7 @@
       <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="3">
         <v>2263</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -802,30 +1047,30 @@
       <c r="J15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="3">
         <v>27</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="3">
         <v>1379</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="3">
         <v>50</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="3">
         <v>69</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="3">
         <v>69</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="n">
+    <row r="16" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
         <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -840,7 +1085,7 @@
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="3">
         <v>28385</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -852,34 +1097,34 @@
       <c r="J16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="3">
         <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="M16" s="3">
         <v>633</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N16" s="3">
         <v>8</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="3">
         <v>488</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="3">
         <v>488</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="n">
+    <row r="17" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>25</v>
@@ -890,7 +1135,7 @@
       <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="3">
         <v>28813</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -902,30 +1147,30 @@
       <c r="J17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="3">
         <v>22</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="3">
         <v>928</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="3">
         <v>7</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="O17" s="3">
         <v>237</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="3">
         <v>237</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="n">
+    <row r="18" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -940,7 +1185,7 @@
       <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="3">
         <v>31857</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -952,30 +1197,30 @@
       <c r="J18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="3">
         <v>1</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="M18" s="3">
         <v>1427</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" s="3">
         <v>35</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="O18" s="3">
         <v>597</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="3">
         <v>597</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="n">
+    <row r="19" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
         <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -990,7 +1235,7 @@
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="3">
         <v>33084</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1002,30 +1247,30 @@
       <c r="J19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="3">
         <v>10</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="3">
         <v>1883</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="3">
         <v>55</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="O19" s="3">
         <v>27</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="3">
         <v>27</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="n">
+    <row r="20" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1040,7 +1285,7 @@
       <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="3">
         <v>44960</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1052,34 +1297,34 @@
       <c r="J20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="3">
         <v>19</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="3">
         <v>1795</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="3">
         <v>38</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="3">
         <v>595</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="3">
         <v>595</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="n">
+    <row r="21" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
         <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
@@ -1090,7 +1335,7 @@
       <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="3">
         <v>42639</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1102,29 +1347,29 @@
       <c r="J21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="3">
         <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="3">
         <v>1178</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="3">
         <v>29</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O21" s="3">
         <v>24</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="3">
         <v>24</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:17" ht="14" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1142,70 +1387,65 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:17" ht="14" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>